--- a/office_table.xlsx
+++ b/office_table.xlsx
@@ -1,420 +1,452 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="office_table" sheetId="1" r:id="rId3"/>
+    <sheet name="office_table" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="127">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>no_data</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>Senate</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Governor</t>
-  </si>
-  <si>
-    <t>Lt Gov</t>
-  </si>
-  <si>
-    <t>Atty General</t>
-  </si>
-  <si>
-    <t>Sec of St</t>
-  </si>
-  <si>
-    <t>St Treasurer</t>
-  </si>
-  <si>
-    <t>Supt Public Instr</t>
-  </si>
-  <si>
-    <t>St Senate</t>
-  </si>
-  <si>
-    <t>St Assembly</t>
-  </si>
-  <si>
-    <t>Supreme Ct</t>
-  </si>
-  <si>
-    <t>Ct Appeals</t>
-  </si>
-  <si>
-    <t>Circuit Ct</t>
-  </si>
-  <si>
-    <t>Dist Atty</t>
-  </si>
-  <si>
-    <t>term:</t>
-  </si>
-  <si>
-    <t>4 (2, &lt;2008)</t>
-  </si>
-  <si>
-    <t>phase (year offset from 2000):</t>
-  </si>
-  <si>
-    <t>0, 4</t>
-  </si>
-  <si>
-    <t>0, 2</t>
-  </si>
-  <si>
-    <t>1,3,5,6,7,8,9</t>
-  </si>
-  <si>
-    <t>all years</t>
-  </si>
-  <si>
-    <t>season:</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>2000-02-15</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>pdf only</t>
-  </si>
-  <si>
-    <t>2000-04-04</t>
-  </si>
-  <si>
-    <t>2000-09-12</t>
-  </si>
-  <si>
-    <t>2000-11-07</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>2001-02-20</t>
-  </si>
-  <si>
-    <t>2001-04-03</t>
-  </si>
-  <si>
-    <t>2002-02-19</t>
-  </si>
-  <si>
-    <t>2002-04-02</t>
-  </si>
-  <si>
-    <t>2002-09-10</t>
-  </si>
-  <si>
-    <t>2002-11-05</t>
-  </si>
-  <si>
-    <t>2003-02-18</t>
-  </si>
-  <si>
-    <t>2003-04-01</t>
-  </si>
-  <si>
-    <t>2003-04-29</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>2003-06-24</t>
-  </si>
-  <si>
-    <t>nd</t>
-  </si>
-  <si>
-    <t>2003-07-22</t>
-  </si>
-  <si>
-    <t>2003-10-21</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>2003-11-18</t>
-  </si>
-  <si>
-    <t>2004-01-27</t>
-  </si>
-  <si>
-    <t>2004-02-17</t>
-  </si>
-  <si>
-    <t>2004-04-06</t>
-  </si>
-  <si>
-    <t>2004-09-14</t>
-  </si>
-  <si>
-    <t>2004-11-02</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>2005-02-15</t>
-  </si>
-  <si>
-    <t>2005-04-05</t>
-  </si>
-  <si>
-    <t>2005-12-13</t>
-  </si>
-  <si>
-    <t>2006-01-10</t>
-  </si>
-  <si>
-    <t>2006-02-21</t>
-  </si>
-  <si>
-    <t>2006-04-04</t>
-  </si>
-  <si>
-    <t>2006-09-12</t>
-  </si>
-  <si>
-    <t>2006-11-07</t>
-  </si>
-  <si>
-    <t>2007-02-20</t>
-  </si>
-  <si>
-    <t>2007-04-03</t>
-  </si>
-  <si>
-    <t>2008-02-19</t>
-  </si>
-  <si>
-    <t>2008-04-01</t>
-  </si>
-  <si>
-    <t>2008-09-09</t>
-  </si>
-  <si>
-    <t>2008-11-04</t>
-  </si>
-  <si>
-    <t>2009-02-17</t>
-  </si>
-  <si>
-    <t>2009-04-07</t>
-  </si>
-  <si>
-    <t>2010-02-16</t>
-  </si>
-  <si>
-    <t>2010-04-06</t>
-  </si>
-  <si>
-    <t>2010-09-14</t>
-  </si>
-  <si>
-    <t>2010-11-02</t>
-  </si>
-  <si>
-    <t>2011-02-15</t>
-  </si>
-  <si>
-    <t>2011-04-05</t>
-  </si>
-  <si>
-    <t>2011-05-03</t>
-  </si>
-  <si>
-    <t>2011-07-12</t>
-  </si>
-  <si>
-    <t>2011-07-19</t>
-  </si>
-  <si>
-    <t>2011-08-09</t>
-  </si>
-  <si>
-    <t>2011-08-16</t>
-  </si>
-  <si>
-    <t>2011-10-11</t>
-  </si>
-  <si>
-    <t>2011-11-08</t>
-  </si>
-  <si>
-    <t>2012-02-21</t>
-  </si>
-  <si>
-    <t>2012-04-03</t>
-  </si>
-  <si>
-    <t>P/-/-</t>
-  </si>
-  <si>
-    <t>2012-05-08</t>
-  </si>
-  <si>
-    <t>2012-06-05</t>
-  </si>
-  <si>
-    <t>2012-08-14</t>
-  </si>
-  <si>
-    <t>2012-11-06</t>
-  </si>
-  <si>
-    <t>2012-12-04</t>
-  </si>
-  <si>
-    <t>2013-02-19</t>
-  </si>
-  <si>
-    <t>2013-04-02</t>
-  </si>
-  <si>
-    <t>2013-10-22</t>
-  </si>
-  <si>
-    <t>2013-11-19</t>
-  </si>
-  <si>
-    <t>2013-12-17</t>
-  </si>
-  <si>
-    <t>2014-02-18</t>
-  </si>
-  <si>
-    <t>2014-04-01</t>
-  </si>
-  <si>
-    <t>2014-08-12</t>
-  </si>
-  <si>
-    <t>2014-11-04</t>
-  </si>
-  <si>
-    <t>2015-02-17</t>
-  </si>
-  <si>
-    <t>2015-04-07</t>
-  </si>
-  <si>
-    <t>2015-06-23</t>
-  </si>
-  <si>
-    <t>2015-07-21</t>
-  </si>
-  <si>
-    <t>2015-09-01</t>
-  </si>
-  <si>
-    <t>2015-09-29</t>
-  </si>
-  <si>
-    <t>2016-02-16</t>
-  </si>
-  <si>
-    <t>2016-04-05</t>
-  </si>
-  <si>
-    <t>2016-08-09</t>
-  </si>
-  <si>
-    <t>2016-11-08</t>
-  </si>
-  <si>
-    <t>2017-02-21</t>
-  </si>
-  <si>
-    <t>2017-04-04</t>
-  </si>
-  <si>
-    <t>2017-12-19</t>
-  </si>
-  <si>
-    <t>2018-01-16</t>
-  </si>
-  <si>
-    <t>2018-02-20</t>
-  </si>
-  <si>
-    <t>2018-04-03</t>
-  </si>
-  <si>
-    <t>2018-05-15</t>
-  </si>
-  <si>
-    <t>2018-06-12</t>
-  </si>
-  <si>
-    <t>2018-08-14</t>
-  </si>
-  <si>
-    <t>2018-11-06</t>
-  </si>
-  <si>
-    <t>2019-02-19</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="127">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lt Gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atty General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec of St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Treasurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supt Public Instr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Senate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supreme Ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ct Appeals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dist Atty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (2, &lt;2008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase (year offset from 2000):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdf only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-06-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-10-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-11-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-11-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-07-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P/-/-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-09-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,89 +454,120 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="50:50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.0"/>
-    <col customWidth="1" min="2" max="2" width="10.43"/>
-    <col customWidth="1" min="3" max="4" width="7.57"/>
-    <col customWidth="1" min="5" max="5" width="5.86"/>
-    <col customWidth="1" min="6" max="6" width="8.0"/>
-    <col customWidth="1" min="7" max="7" width="9.14"/>
-    <col customWidth="1" min="8" max="8" width="7.29"/>
-    <col customWidth="1" min="9" max="9" width="6.71"/>
-    <col customWidth="1" min="10" max="10" width="9.0"/>
-    <col customWidth="1" min="11" max="11" width="7.0"/>
-    <col customWidth="1" min="12" max="12" width="11.71"/>
-    <col customWidth="1" min="13" max="13" width="9.14"/>
-    <col customWidth="1" min="14" max="14" width="11.29"/>
-    <col customWidth="1" min="15" max="15" width="15.0"/>
-    <col customWidth="1" min="16" max="16" width="9.57"/>
-    <col customWidth="1" min="17" max="17" width="11.86"/>
-    <col customWidth="1" min="18" max="18" width="11.14"/>
-    <col customWidth="1" min="19" max="19" width="10.29"/>
-    <col customWidth="1" min="20" max="20" width="9.0"/>
-    <col customWidth="1" min="21" max="21" width="10.86"/>
-    <col customWidth="1" min="22" max="26" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="22" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +637,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -583,47 +646,47 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>6.0</v>
+      <c r="G2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>22</v>
@@ -634,45 +697,47 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>0.0</v>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1.0</v>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="2">
-        <v>0.0</v>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>26</v>
@@ -683,8 +748,8 @@
       <c r="T3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="2">
-        <v>0.0</v>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -692,7 +757,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -752,9 +817,9 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="2">
-        <v>1849.0</v>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>1849</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>31</v>
@@ -788,9 +853,9 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="2">
-        <v>1847.0</v>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>1847</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>34</v>
@@ -822,9 +887,9 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="2">
-        <v>1848.0</v>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>1848</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>34</v>
@@ -858,9 +923,9 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="2">
-        <v>1846.0</v>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>1846</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -894,9 +959,9 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="2">
-        <v>1845.0</v>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>1845</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -938,9 +1003,9 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="2">
-        <v>1844.0</v>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>1844</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -974,9 +1039,9 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="2">
-        <v>1843.0</v>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>1843</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>39</v>
@@ -1008,9 +1073,9 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="2">
-        <v>1842.0</v>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>1842</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
@@ -1044,9 +1109,9 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="2">
-        <v>1841.0</v>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>1841</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>41</v>
@@ -1078,9 +1143,9 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="2">
-        <v>1578.0</v>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>1578</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>42</v>
@@ -1128,9 +1193,9 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="2">
-        <v>1577.0</v>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>1577</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>43</v>
@@ -1176,9 +1241,9 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="2">
-        <v>1840.0</v>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>1840</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>44</v>
@@ -1212,9 +1277,9 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="2">
-        <v>1839.0</v>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>1839</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>45</v>
@@ -1246,9 +1311,9 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="2">
-        <v>1756.0</v>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>1756</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>46</v>
@@ -1282,9 +1347,9 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="2">
-        <v>689.0</v>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>689</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>48</v>
@@ -1320,9 +1385,9 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="2">
-        <v>685.0</v>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>685</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>50</v>
@@ -1356,9 +1421,9 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="2">
-        <v>674.0</v>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>674</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>51</v>
@@ -1394,9 +1459,9 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="2">
-        <v>664.0</v>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>664</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>53</v>
@@ -1430,9 +1495,9 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="2">
-        <v>448.0</v>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>448</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>54</v>
@@ -1466,9 +1531,9 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="2">
-        <v>447.0</v>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>447</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>55</v>
@@ -1502,9 +1567,9 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="2">
-        <v>446.0</v>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>446</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>56</v>
@@ -1536,9 +1601,9 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="2">
-        <v>445.0</v>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>445</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>57</v>
@@ -1572,9 +1637,9 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="2">
-        <v>444.0</v>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>444</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>58</v>
@@ -1616,9 +1681,9 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="2">
-        <v>443.0</v>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>443</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>60</v>
@@ -1652,9 +1717,9 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="2">
-        <v>442.0</v>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>442</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>61</v>
@@ -1692,9 +1757,9 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="2">
-        <v>441.0</v>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>441</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>62</v>
@@ -1730,9 +1795,9 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="2">
-        <v>440.0</v>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>440</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>63</v>
@@ -1766,9 +1831,9 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="2">
-        <v>439.0</v>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>439</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>64</v>
@@ -1802,9 +1867,9 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2">
-        <v>438.0</v>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>438</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>65</v>
@@ -1840,9 +1905,9 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="2">
-        <v>437.0</v>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>437</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
@@ -1894,9 +1959,9 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="2">
-        <v>436.0</v>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>436</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>67</v>
@@ -1944,9 +2009,9 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="2">
-        <v>435.0</v>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>435</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>68</v>
@@ -1982,9 +2047,9 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="2">
-        <v>434.0</v>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>434</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>69</v>
@@ -2020,9 +2085,9 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="2">
-        <v>433.0</v>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>433</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>70</v>
@@ -2058,9 +2123,9 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="2">
-        <v>432.0</v>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>432</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>71</v>
@@ -2096,9 +2161,9 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="2">
-        <v>431.0</v>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>431</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>72</v>
@@ -2136,9 +2201,9 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="2">
-        <v>430.0</v>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>430</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>73</v>
@@ -2178,9 +2243,9 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="2">
-        <v>429.0</v>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>429</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>74</v>
@@ -2216,9 +2281,9 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="2">
-        <v>428.0</v>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>428</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>75</v>
@@ -2256,9 +2321,9 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="2">
-        <v>427.0</v>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>427</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>76</v>
@@ -2294,9 +2359,9 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="2">
-        <v>426.0</v>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>426</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>77</v>
@@ -2330,9 +2395,9 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="2">
-        <v>425.0</v>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>425</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -2382,9 +2447,9 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="2">
-        <v>424.0</v>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>424</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>79</v>
@@ -2430,9 +2495,9 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="2">
-        <v>1850.0</v>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>1850</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>80</v>
@@ -2468,9 +2533,9 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="2">
-        <v>421.0</v>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>421</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>81</v>
@@ -2506,9 +2571,9 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="2">
-        <v>422.0</v>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>422</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>81</v>
@@ -2533,7 +2598,9 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
+      <c r="Q50" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
@@ -2544,9 +2611,9 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="2">
-        <v>419.0</v>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>419</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>82</v>
@@ -2580,9 +2647,9 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="2">
-        <v>1837.0</v>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>1837</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>83</v>
@@ -2618,9 +2685,9 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="2">
-        <v>1838.0</v>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>1838</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>83</v>
@@ -2656,9 +2723,9 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="2">
-        <v>1835.0</v>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>1835</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>84</v>
@@ -2692,9 +2759,9 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="2">
-        <v>1836.0</v>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>1836</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>84</v>
@@ -2730,9 +2797,9 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="2">
-        <v>1833.0</v>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>1833</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>85</v>
@@ -2766,9 +2833,9 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="2">
-        <v>1834.0</v>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>1834</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>85</v>
@@ -2802,9 +2869,9 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="2">
-        <v>1832.0</v>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>1832</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>86</v>
@@ -2838,9 +2905,9 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="2">
-        <v>416.0</v>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>416</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>87</v>
@@ -2876,9 +2943,9 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="2">
-        <v>415.0</v>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>415</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>88</v>
@@ -2912,9 +2979,9 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="2">
-        <v>1831.0</v>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>1831</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>89</v>
@@ -2948,9 +3015,9 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="2">
-        <v>413.0</v>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
+        <v>413</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>90</v>
@@ -2988,9 +3055,9 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="2">
-        <v>1830.0</v>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
+        <v>1830</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>92</v>
@@ -3030,9 +3097,9 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="2">
-        <v>1662.0</v>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
+        <v>1662</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>93</v>
@@ -3070,9 +3137,9 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="2">
-        <v>411.0</v>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
+        <v>411</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>94</v>
@@ -3114,9 +3181,9 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="2">
-        <v>409.0</v>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
+        <v>409</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>95</v>
@@ -3158,9 +3225,9 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="2">
-        <v>410.0</v>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
+        <v>410</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>95</v>
@@ -3196,9 +3263,9 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="2">
-        <v>408.0</v>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
+        <v>408</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>96</v>
@@ -3232,9 +3299,9 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="2">
-        <v>1829.0</v>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
+        <v>1829</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>97</v>
@@ -3270,9 +3337,9 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="2">
-        <v>407.0</v>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
+        <v>407</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>97</v>
@@ -3308,9 +3375,9 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="2">
-        <v>404.0</v>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
+        <v>404</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>98</v>
@@ -3348,9 +3415,9 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="2">
-        <v>405.0</v>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>405</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>98</v>
@@ -3384,9 +3451,9 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="2">
-        <v>1828.0</v>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
+        <v>1828</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>99</v>
@@ -3422,9 +3489,9 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="2">
-        <v>1827.0</v>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
+        <v>1827</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>100</v>
@@ -3458,9 +3525,9 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="2">
-        <v>1539.0</v>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
+        <v>1539</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>100</v>
@@ -3496,9 +3563,9 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="2">
-        <v>1538.0</v>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
+        <v>1538</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>101</v>
@@ -3532,9 +3599,9 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="2">
-        <v>1826.0</v>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
+        <v>1826</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>102</v>
@@ -3568,9 +3635,9 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="2">
-        <v>1825.0</v>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
+        <v>1825</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>103</v>
@@ -3604,9 +3671,9 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="2">
-        <v>1575.0</v>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
+        <v>1575</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>104</v>
@@ -3654,9 +3721,9 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="2">
-        <v>1574.0</v>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
+        <v>1574</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>105</v>
@@ -3700,9 +3767,9 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="2">
-        <v>1573.0</v>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
+        <v>1573</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>106</v>
@@ -3740,9 +3807,9 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="2">
-        <v>1824.0</v>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
+        <v>1824</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>107</v>
@@ -3778,9 +3845,9 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="2">
-        <v>1576.0</v>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>1576</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>107</v>
@@ -3814,9 +3881,9 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="2">
-        <v>1661.0</v>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
+        <v>1661</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>108</v>
@@ -3852,9 +3919,9 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="2">
-        <v>1660.0</v>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
+        <v>1660</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>109</v>
@@ -3888,9 +3955,9 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="2">
-        <v>1659.0</v>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>1659</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>110</v>
@@ -3926,9 +3993,9 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="2">
-        <v>1658.0</v>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
+        <v>1658</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>111</v>
@@ -3962,9 +4029,9 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="2">
-        <v>1823.0</v>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
+        <v>1823</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>112</v>
@@ -4000,9 +4067,9 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="2">
-        <v>1865.0</v>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>1865</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>113</v>
@@ -4038,9 +4105,9 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="2">
-        <v>1710.0</v>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>1710</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>113</v>
@@ -4074,9 +4141,9 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="2">
-        <v>1711.0</v>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>1711</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>114</v>
@@ -4118,9 +4185,9 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="2">
-        <v>1748.0</v>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>1748</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
@@ -4160,9 +4227,9 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="2">
-        <v>1755.0</v>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
+        <v>1755</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>116</v>
@@ -4198,9 +4265,9 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="2">
-        <v>1761.0</v>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>1761</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>117</v>
@@ -4238,9 +4305,9 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="2">
-        <v>1822.0</v>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>1822</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>118</v>
@@ -4278,9 +4345,9 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="2">
-        <v>1851.0</v>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>1851</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>119</v>
@@ -4316,9 +4383,9 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="2">
-        <v>1864.0</v>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>1864</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>120</v>
@@ -4354,9 +4421,9 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="2">
-        <v>1866.0</v>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>1866</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>121</v>
@@ -4392,9 +4459,9 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="2">
-        <v>1873.0</v>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>1873</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>122</v>
@@ -4432,9 +4499,9 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="2">
-        <v>1874.0</v>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>1874</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>123</v>
@@ -4470,9 +4537,9 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="2">
-        <v>1878.0</v>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>1878</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>124</v>
@@ -4522,9 +4589,9 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="2">
-        <v>1886.0</v>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>1886</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>125</v>
@@ -4570,9 +4637,9 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="2">
-        <v>1889.0</v>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>1889</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>126</v>
@@ -4606,12 +4673,12 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="2">
-        <v>1890.0</v>
-      </c>
-      <c r="B104" s="5">
-        <v>43557.0</v>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>43557</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>47</v>
@@ -4644,12 +4711,12 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="6">
-        <v>1891.0</v>
-      </c>
-      <c r="B105" s="7">
-        <v>43557.0</v>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>43557</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4666,13 +4733,13 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
-      <c r="R105" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S105" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T105" s="6" t="s">
+      <c r="R105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T105" s="2" t="s">
         <v>37</v>
       </c>
       <c r="U105" s="2"/>
@@ -4682,14 +4749,14 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="6">
-        <v>1892.0</v>
-      </c>
-      <c r="B106" s="7">
-        <v>43585.0</v>
-      </c>
-      <c r="C106" s="6" t="s">
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>1892</v>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>43585</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D106" s="2"/>
@@ -4705,7 +4772,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
-      <c r="Q106" s="6" t="s">
+      <c r="Q106" s="2" t="s">
         <v>37</v>
       </c>
       <c r="R106" s="2"/>
@@ -4718,7 +4785,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4746,7 +4813,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4774,7 +4841,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4802,7 +4869,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4830,7 +4897,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4858,7 +4925,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4886,7 +4953,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4914,7 +4981,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4942,7 +5009,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4970,7 +5037,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4998,7 +5065,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5026,7 +5093,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5054,7 +5121,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5082,7 +5149,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5110,7 +5177,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5138,7 +5205,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5166,7 +5233,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5194,7 +5261,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5222,7 +5289,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5250,7 +5317,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5278,7 +5345,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5306,7 +5373,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5334,7 +5401,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5362,7 +5429,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5390,7 +5457,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5418,7 +5485,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5446,7 +5513,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5474,7 +5541,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5502,7 +5569,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5530,7 +5597,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5558,7 +5625,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5586,7 +5653,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5614,7 +5681,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5642,7 +5709,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5670,7 +5737,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5698,7 +5765,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5726,7 +5793,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5754,7 +5821,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5782,7 +5849,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5810,7 +5877,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5838,7 +5905,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5866,7 +5933,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5894,7 +5961,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5922,7 +5989,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5950,7 +6017,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5978,7 +6045,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6006,7 +6073,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6034,7 +6101,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6062,7 +6129,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6090,7 +6157,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6118,7 +6185,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6146,7 +6213,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6174,7 +6241,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6202,7 +6269,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6230,7 +6297,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6258,7 +6325,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6286,7 +6353,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6314,7 +6381,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6342,7 +6409,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6370,7 +6437,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6398,7 +6465,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6426,7 +6493,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6454,7 +6521,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6482,7 +6549,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6510,7 +6577,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6538,7 +6605,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6566,7 +6633,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6594,7 +6661,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6622,7 +6689,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6650,7 +6717,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6678,7 +6745,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6706,7 +6773,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6734,7 +6801,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6762,7 +6829,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6790,7 +6857,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6818,7 +6885,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6846,7 +6913,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6874,7 +6941,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6902,7 +6969,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6930,7 +6997,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6958,7 +7025,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6986,7 +7053,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7014,7 +7081,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7042,7 +7109,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7070,7 +7137,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7098,7 +7165,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7126,7 +7193,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7154,7 +7221,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7182,7 +7249,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7210,7 +7277,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7238,7 +7305,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7266,7 +7333,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7294,7 +7361,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7322,7 +7389,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7350,7 +7417,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7378,7 +7445,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7406,7 +7473,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7434,7 +7501,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7462,7 +7529,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7490,7 +7557,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7518,7 +7585,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7546,7 +7613,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7574,7 +7641,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7602,7 +7669,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7630,7 +7697,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7658,7 +7725,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7686,7 +7753,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7714,7 +7781,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7742,7 +7809,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7770,7 +7837,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7798,7 +7865,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7826,7 +7893,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7854,7 +7921,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7882,7 +7949,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7910,7 +7977,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7938,7 +8005,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7966,7 +8033,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7994,7 +8061,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8022,7 +8089,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8050,7 +8117,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8078,7 +8145,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8106,7 +8173,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8134,7 +8201,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8162,7 +8229,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8190,7 +8257,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8218,7 +8285,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8246,7 +8313,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8274,7 +8341,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8302,7 +8369,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8330,7 +8397,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8358,7 +8425,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8386,7 +8453,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8414,7 +8481,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8442,7 +8509,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8470,7 +8537,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8498,7 +8565,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8526,7 +8593,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8554,7 +8621,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8582,7 +8649,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8610,7 +8677,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8638,7 +8705,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8666,7 +8733,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8694,7 +8761,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8722,7 +8789,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8750,7 +8817,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8778,7 +8845,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8806,7 +8873,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8834,7 +8901,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8862,7 +8929,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8890,7 +8957,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8918,7 +8985,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8946,7 +9013,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8974,7 +9041,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9002,7 +9069,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9030,7 +9097,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" ht="12.75" customHeight="1">
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9058,7 +9125,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" ht="12.75" customHeight="1">
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9086,7 +9153,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" ht="12.75" customHeight="1">
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9114,7 +9181,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" ht="12.75" customHeight="1">
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9142,7 +9209,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9170,7 +9237,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1">
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9198,7 +9265,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" ht="12.75" customHeight="1">
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9226,7 +9293,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" ht="12.75" customHeight="1">
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9254,7 +9321,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" ht="12.75" customHeight="1">
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9282,7 +9349,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" ht="12.75" customHeight="1">
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9310,7 +9377,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1">
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9338,7 +9405,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" ht="12.75" customHeight="1">
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9366,7 +9433,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" ht="12.75" customHeight="1">
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9394,7 +9461,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" ht="12.75" customHeight="1">
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9422,7 +9489,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" ht="12.75" customHeight="1">
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9450,7 +9517,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" ht="12.75" customHeight="1">
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -9478,7 +9545,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" ht="12.75" customHeight="1">
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -9506,7 +9573,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" ht="12.75" customHeight="1">
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -9534,7 +9601,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" ht="12.75" customHeight="1">
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -9562,7 +9629,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" ht="12.75" customHeight="1">
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -9590,7 +9657,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" ht="12.75" customHeight="1">
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9618,7 +9685,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" ht="12.75" customHeight="1">
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9646,7 +9713,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" ht="12.75" customHeight="1">
+    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9674,7 +9741,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" ht="12.75" customHeight="1">
+    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9702,7 +9769,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" ht="12.75" customHeight="1">
+    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9730,7 +9797,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -9758,7 +9825,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -9786,7 +9853,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" ht="12.75" customHeight="1">
+    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -9814,7 +9881,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" ht="12.75" customHeight="1">
+    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -9842,7 +9909,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" ht="12.75" customHeight="1">
+    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -9870,7 +9937,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" ht="12.75" customHeight="1">
+    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -9898,7 +9965,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1">
+    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -9926,7 +9993,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
+    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -9954,7 +10021,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1">
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -9982,7 +10049,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" ht="12.75" customHeight="1">
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10010,7 +10077,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1">
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10038,7 +10105,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1">
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10066,7 +10133,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10094,7 +10161,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10122,7 +10189,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1">
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10150,7 +10217,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1">
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10178,7 +10245,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1">
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10206,7 +10273,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1">
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10234,7 +10301,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1">
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10262,713 +10329,712 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>